--- a/docs/source/recursos/pec_porcino/tabla_def_por_19feb21.xlsx
+++ b/docs/source/recursos/pec_porcino/tabla_def_por_19feb21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_porcino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1120FD-0EC1-46F6-B42E-688B92970F48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975A928-D99D-469D-9339-8A7A510849C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34665" yWindow="0" windowWidth="15375" windowHeight="10905" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="Definiciones" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     </r>
   </si>
   <si>
-    <t>Fomentar el desarrollo, el crecimiento y la descentralización de empresas porcícolas y avícolas para que su operación se realice de manera de ordenada y sustentable, promueva modelos de producción no convencionales a partir de porcinos y aves localmente adaptados e incorpore esquemas tecnológicos para reducir y mitigar impactos, de manera que se incremente la sostenibilidad ambiental y contribuya a mejorar la salud pública.</t>
-  </si>
-  <si>
     <t>Disponibilidad de agua</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Disponibilidad de mano de obra en los diferentes tipos de asentamientos humanos.</t>
+  </si>
+  <si>
+    <t>Fomentar el desarrollo, el crecimiento y la descentralización de empresas porcícolas y avícolas para que su operación se realice de manera ordenada y sustentable, promueva modelos de producción no convencionales a partir de porcinos y aves seleccionados, especializados o localmente adaptados e incorpore esquemas tecnológicos para reducir y mitigar impactos socioambientales, de manera que se incremente la sostenibilidad ambiental y contribuya a mejorar la salud pública.</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,10 +647,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>9.5000000000000001E-2</v>
@@ -669,15 +669,15 @@
         <v>4</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C14" s="9">
         <v>0.83299999999999996</v>
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
@@ -774,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/source/recursos/pec_porcino/tabla_def_por_19feb21.xlsx
+++ b/docs/source/recursos/pec_porcino/tabla_def_por_19feb21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_porcino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975A928-D99D-469D-9339-8A7A510849C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549397F-3B43-41EF-9AAB-E95A64457B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="2595" yWindow="375" windowWidth="17895" windowHeight="9960" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="Definiciones" sheetId="1" r:id="rId1"/>
@@ -146,12 +146,6 @@
     </r>
   </si>
   <si>
-    <t>Disponibilidad de agua</t>
-  </si>
-  <si>
-    <t>Distancia al acuifero o nivel piezométrico. Costo de extracción de agua del acuifero</t>
-  </si>
-  <si>
     <t>Peso</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Fomentar el desarrollo, el crecimiento y la descentralización de empresas porcícolas y avícolas para que su operación se realice de manera ordenada y sustentable, promueva modelos de producción no convencionales a partir de porcinos y aves seleccionados, especializados o localmente adaptados e incorpore esquemas tecnológicos para reducir y mitigar impactos socioambientales, de manera que se incremente la sostenibilidad ambiental y contribuya a mejorar la salud pública.</t>
+  </si>
+  <si>
+    <t>Profundidad del acuífero</t>
+  </si>
+  <si>
+    <t>Distancia al acuífero o nivel piezométrico. Costo de extracción de agua del acuifero</t>
   </si>
 </sst>
 </file>
@@ -210,18 +210,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -250,12 +244,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0191307-F977-47E2-8681-ABE9B769339C}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,96 +609,116 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -709,8 +732,8 @@
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +749,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
@@ -773,8 +796,8 @@
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>31</v>
+      <c r="C27" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,7 +807,7 @@
       <c r="B28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>0.8</v>
       </c>
     </row>
@@ -795,13 +818,13 @@
       <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,8 +834,8 @@
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>31</v>
+      <c r="C32" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/source/recursos/pec_porcino/tabla_def_por_19feb21.xlsx
+++ b/docs/source/recursos/pec_porcino/tabla_def_por_19feb21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_porcino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549397F-3B43-41EF-9AAB-E95A64457B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFAB80-73A9-45D1-AA0F-DDA6B02FF7BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="375" windowWidth="17895" windowHeight="9960" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="20880" yWindow="-1950" windowWidth="14580" windowHeight="13980" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="Definiciones" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Distancia a carreteras pavimentadas de 2 carriles y secundarias</t>
   </si>
   <si>
-    <t>Distancia a Puerto Progreso.</t>
-  </si>
-  <si>
     <t>Infraestructura industrial complementaria (incluye establecimientos de inspección federal, plantas transformadoras de productos y empacadoras). Distancia a rastros y empacadoras porcinos y avícolas.</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Distancia al acuífero o nivel piezométrico. Costo de extracción de agua del acuifero</t>
+  </si>
+  <si>
+    <t>Distancia a Puerto Progreso para recepción de insumos.</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="8">
         <v>9.5000000000000001E-2</v>
@@ -685,15 +685,15 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="8">
         <v>0.83299999999999996</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>0.25700000000000001</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <v>0.13900000000000001</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>7.4999999999999997E-2</v>
@@ -797,15 +797,15 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C28" s="6">
         <v>0.8</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="6">
         <v>0.2</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,15 +835,15 @@
         <v>4</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2">
         <v>0.55900000000000005</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2">
         <v>0.31900000000000001</v>
@@ -862,10 +862,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="2">
         <v>0.122</v>
